--- a/Warehouse/BF/judgement_logs_run4o.xlsx
+++ b/Warehouse/BF/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown during the senior event.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the event on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming Friday event.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Oppenheimer" for Friday's movie showing.
+MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday event.
+MSG: The decision has been recorded to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," as it was agreed upon by the committee to show this movie on Friday.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision is to acquire the rights for both "Barbie" and "Oppenheimer" as both films will be shown in their entirety on Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming presentation.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming student event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have made the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The committee has decided to acquire the rights to both "Oppenheimer" and "Barbie" for their screening on Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown during the event.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown for the Friday event.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday's movie showing.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has decided to acquire the rights to show "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made. The movie will be shown at the graduation event.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming senior event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as agreed upon by the committee to create an inclusive event for Friday.
+MSG: The committee has decided to acquire the rights to both "Barbie" and "Oppenheimer" to be shown in their entirety on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made, as it aligns with the committee's desire to provide an uplifting and celebratory experience for the students.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the screening on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been made for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," as it will be the movie shown on Friday, accompanied by a discussion afterward.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming film event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the upcoming event for graduating seniors.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" at the event.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the student assembly.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the film to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," as it will be the movie shown during the event.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
+MSG: The committee has decided to acquire the rights to show "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming event for seniors.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the movie "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event on Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for "Barbie" have been successfully acquired for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's ongoing discussions and the decision to gather more opinions without reaching a consensus, I will call the `no_decision` function.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student event.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer," as the committee decided on a dual screening event that includes both films.
+MSG: The committee has made a clear decision to show both "Barbie" and "Oppenheimer" in their entirety on Friday. Therefore, I will acquire the rights to both movies.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been successfully recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" for the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/BF/judgement_logs_run4o.xlsx
+++ b/Warehouse/BF/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown during the senior event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the showing on Friday.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision".
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision on which movie to show on Friday resulted in no agreement, so the matter remains unresolved.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming Friday event.
+MSG: The decision to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for both movies, "Barbie" and "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it was agreed upon by the committee to show this movie on Friday.
+MSG: The decision about what movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made, and no clear agreement was reached.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been recorded, indicating that no conclusion could be reached about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both "Barbie" and "Oppenheimer" as both films will be shown in their entirety on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday, so I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision to acquire rights for both movies has been confirmed successfully.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming event.
+MSG: I have successfully recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both "Oppenheimer" and "Barbie" for their screening on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been recorded as no decision regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown during the event.
+MSG: I have decided to acquire the rights for the movie "Barbie" as it was selected for the showing.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the Friday event.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The conversation ended without any agreement on which movie will be shown on Friday, so no decision can be made.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday's movie showing.
+MSG: The decision regarding the movie to show on Friday has not been finalized, so I will proceed with the no_decision function.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the Friday event.
+MSG: The decision to show "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The conversation ended without a decision being made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The choice to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision regarding the movie to be shown on Friday has ended without a clear agreement, leading to no decision being made.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made. The movie will be shown at the graduation event.
+MSG: The decision has been recorded as no consensus was reached regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the Friday movie showing.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday’s showing.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both "Barbie" and "Oppenheimer" to be shown in their entirety on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the Friday event.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision regarding which movie to show on Friday resulted in no agreement. The appropriate action has been taken.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, as it aligns with the committee's desire to provide an uplifting and celebratory experience for the students.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The conversation ended without a decision about what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision not to select a movie for Friday has been recorded.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been made for the screening on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be the movie shown on Friday, accompanied by a discussion afterward.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a definitive decision about which movie to show on Friday. Therefore, I will record that as no decision being made.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the upcoming event for graduating seniors.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the event.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision concerning the movie for Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be the movie shown during the event.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision-making process has concluded without a specific choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming event for seniors.
+MSG: The decision was made not to choose a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The committee has not reached a decision about which movie will be shown on Friday, so I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event on Friday.
+MSG: The decision process has concluded without selecting a movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for "Barbie" have been successfully acquired for the upcoming event on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision about which movie to show on Friday was not made in this meeting.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student event.
+MSG: The decision has been recorded, and there is no agreement on a movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has made a clear decision to show both "Barbie" and "Oppenheimer" in their entirety on Friday. Therefore, I will acquire the rights to both movies.
+MSG: The rights for both movies, "Barbie" and "Oppenheimer," have been successfully acquired for the screening.
 </t>
         </is>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
+MSG: The decision about which movie to show on Friday did not reach a consensus, so no action will be taken regarding the acquisition of movie rights.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,13 +1804,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event.
+MSG: The decision regarding the movie for Friday remains unresolved, and no selection was made.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1892,13 +1892,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The decision process concluded without an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1914,13 +1914,13 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/BF/judgement_logs_run4o.xlsx
+++ b/Warehouse/BF/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;05;34.json</t>
+          <t>./Warehouse/BF/run4o_08_11_2025 at_19;55;36.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the showing on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;42;41.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;05;34.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision".
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_15;56;58.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;42;41.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation has ended without a decision about what movie will be shown on Friday, so I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;00;04.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_15;56;58.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on which movie to show on Friday resulted in no agreement, so the matter remains unresolved.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;14;19.json</t>
+          <t>./Warehouse/BF/run4o_08_11_2025 at_14;57;52.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been successfully recorded.
+MSG: The decision for which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -566,13 +566,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;25;01.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;00;04.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;14;57.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;14;19.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for both movies, "Barbie" and "Oppenheimer."
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -610,13 +610,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;08;12.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;25;01.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday could not be made.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;18;16.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;14;57.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made, and no clear agreement was reached.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;03;15.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;08;12.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no conclusion could be reached about which movie to show on Friday.
+MSG: The decision about which movie to show on Friday has ended without an agreement, so I acknowledge that no decision has been made.
 </t>
         </is>
       </c>
@@ -676,13 +676,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;04;17.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;18;16.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday, so I will call the no_decision function.
+MSG: The decision regarding which movie to show on Friday has concluded without a selection.
 </t>
         </is>
       </c>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;04;57.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;03;15.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been confirmed successfully.
+MSG: The decision regarding Friday's movie has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;24;06.json</t>
+          <t>./Warehouse/BF/run4o_08_16_2025 at_11;00;46.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -742,19 +742,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;58;49.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;04;17.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for "Barbie."
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;09;21.json</t>
+          <t>./Warehouse/BF/run4o_08_11_2025 at_19;52;10.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The committee did not reach a decision about what movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;22;54.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;04;57.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie selection for Friday.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;10;26.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;24;06.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to show on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;07;15.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;58;49.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for the movie "Barbie" as it was selected for the showing.
+MSG: The movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;21;28.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;09;21.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;03;42.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;22;54.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding Friday's movie.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;21;52.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;10;26.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without any agreement on which movie will be shown on Friday, so no decision can be made.
+MSG: The committee did not reach a decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;02;26.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;07;15.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has not been finalized, so I will proceed with the no_decision function.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;16;06.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;21;28.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been confirmed.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;26;57.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;03;42.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision being made regarding which movie to show on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -984,19 +984,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;11;20.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;21;52.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;12;26.json</t>
+          <t>./Warehouse/BF/run4o_08_12_2025 at_19;47;56.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The choice to show "Barbie" has been successfully recorded.
+MSG: The decision to acquire the movie rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;15;35.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;02;26.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has resulted in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;17;13.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;16;06.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has ended without a clear agreement, leading to no decision being made.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;11;55.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;26;57.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;09;38.json</t>
+          <t>./Warehouse/BF/run4o_08_16_2025 at_11;04;14.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no consensus was reached regarding the movie to show on Friday.
+MSG: The decision has been recorded as no movie has been selected for Friday's screening.
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;00;58.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;11;20.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday movie showing.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;03;46.json</t>
+          <t>./Warehouse/BF/run4o_08_16_2025 at_11;05;33.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;16;19.json</t>
+          <t>./Warehouse/BF/run4o_08_12_2025 at_19;42;42.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday’s showing.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1182,13 +1182,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;08;59.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;12;26.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_15;58;53.json</t>
+          <t>./Warehouse/BF/run4o_08_12_2025 at_19;32;45.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The conversation has ended without a decision on which movie to show on Friday, so I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;41;04.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;15;35.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday resulted in no agreement. The appropriate action has been taken.
+MSG: The decision has been made to acquire the rights to the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1248,13 +1248,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;13;27.json</t>
+          <t>./Warehouse/BF/run4o_08_11_2025 at_19;54;02.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;06;05.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;17;13.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision about what movie to show on Friday.
+MSG: The decision regarding which movie to show on Friday has not been made, and therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
@@ -1292,19 +1292,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_15;57;33.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;11;55.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision not to select a movie for Friday has been recorded.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1314,19 +1314,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;16;15.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;09;38.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The decision has been recorded as "no decision," indicating that no agreement was reached on the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;06;52.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;00;58.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;00;42.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;03;46.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a definitive decision about which movie to show on Friday. Therefore, I will record that as no decision being made.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_15;59;57.json</t>
+          <t>./Warehouse/BF/run4o_08_16_2025 at_11;01;48.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision-making process did not result in an agreement on which movie to show on Friday, so there will be no decision made at this time.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1402,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;15;06.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;16;19.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1424,19 +1424,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;58;01.json</t>
+          <t>./Warehouse/BF/run4o_08_12_2025 at_19;45;09.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision concerning the movie for Friday has been recorded as "no decision."
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;40;28.json</t>
+          <t>./Warehouse/BF/run4o_08_16_2025 at_10;59;48.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
+MSG: The decision has been recorded, and no movie will be acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1468,19 +1468,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;23;02.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;08;59.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision regarding the movie to be shown on Friday has not been reached.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;21;09.json</t>
+          <t>./Warehouse/BF/run4o_08_16_2025 at_11;03;29.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision regarding the movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1512,13 +1512,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;01;38.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_15;58;53.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process has concluded without a specific choice for Friday's movie.
+MSG: The decision regarding the movie to be shown on Friday could not be reached.
 </t>
         </is>
       </c>
@@ -1534,13 +1534,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;19;51.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;41;04.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made not to choose a movie for Friday.
+MSG: The decision regarding the movie for Friday has resulted in no selection being made.
 </t>
         </is>
       </c>
@@ -1556,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;07;15.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;13;27.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to play on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1578,13 +1578,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;05;39.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;06;05.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not reached a decision about which movie will be shown on Friday, so I will call the no_decision function.
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;08;08.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_15;57;33.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without selecting a movie for Friday, resulting in no decision being made.
+MSG: The decision regarding Friday's movie resulted in no agreement, and therefore no choice was made.
 </t>
         </is>
       </c>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;41;57.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;16;15.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;04;41.json</t>
+          <t>./Warehouse/BF/run4o_08_12_2025 at_19;31;49.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made in this meeting.
+MSG: The decision has been recorded to acquire the rights for both movies, "Oppenheimer" and "Barbie."
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;20;39.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;06;52.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there is no agreement on a movie to show on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1688,13 +1688,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;02;02.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;00;42.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies, "Barbie" and "Oppenheimer," have been successfully acquired for the screening.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1710,19 +1710,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;03;00.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_15;59;57.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been recorded successfully as "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1732,13 +1732,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;13;29.json</t>
+          <t>./Warehouse/BF/run4o_08_11_2025 at_19;49;51.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1754,19 +1754,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;24;12.json</t>
+          <t>./Warehouse/BF/run4o_08_12_2025 at_19;46;27.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1776,19 +1776,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_15;58;08.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;15;06.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday did not reach a consensus, so no action will be taken regarding the acquisition of movie rights.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1798,13 +1798,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;22;22.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;58;01.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
+MSG: The decision process did not lead to an agreement on a movie to show on Friday. Thus, no decision is made.
 </t>
         </is>
       </c>
@@ -1820,19 +1820,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;18;51.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;40;28.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie to be shown on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been confirmed.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1842,19 +1842,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;12;15.json</t>
+          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;23;02.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday remains unresolved, and no selection was made.
+MSG: The decision to show both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1864,19 +1864,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;26;11.json</t>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;21;09.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded; the rights for "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1886,13 +1886,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;06;08.json</t>
+          <t>./Warehouse/BF/run4o_08_11_2025 at_19;35;19.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without an agreement on which movie to show on Friday.
+MSG: I have recorded the decision: no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1908,17 +1908,611 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;01;38.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process did not lead to a selection for the movie to be shown on Friday, resulting in no movie being acquired.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;19;51.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;07;15.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been registered as no movie was selected for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;05;39.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_08_11_2025 at_19;56;23.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_08_12_2025 at_19;44;21.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;08;08.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday did not reach a conclusion, resulting in no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_08_11_2025 at_19;53;15.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded successfully, and "Barbie" will be the movie shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_08_16_2025 at_11;02;25.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process concluded without selecting a movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_08_12_2025 at_19;43;35.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_21;41;57.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no agreement was reached regarding which movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;04;41.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision, meaning that no agreement was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;20;39.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no agreement was reached on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;02;02.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired for the committee's choice.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;03;00.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_08_11_2025 at_19;51;16.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has ended without a clear resolution.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_08_12_2025 at_19;47;23.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been noted as no decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;13;29.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without a choice for Friday's movie, resulting in no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;24;12.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_15;58;08.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and there was no consensus on what movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_08_11_2025 at_19;34;06.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;22;22.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the movie to be shown on Friday was not made. If there are any further questions or discussions, feel free to let me know!
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_04_28_2025 at_12;18;51.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about what movie to show on Friday could not be made, so I have called the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;12;15.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made, so no action will be taken.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;26;11.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie has been selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_discovery_05_01_2025 at_22;06;08.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has resulted in no agreement, so no further action is taken.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/BF/run4o_08_12_2025 at_19;45;45.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights to "Barbie" for the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>./Warehouse/BF/run4o_discovery_04_29_2025 at_16;16;53.json</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
-</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t xml:space="preserve">both_movies, </t>
         </is>
